--- a/excel_balance/2025-05-26.xlsx
+++ b/excel_balance/2025-05-26.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>user</t>
   </si>
@@ -45,6 +45,9 @@
   </si>
   <si>
     <t>测试1</t>
+  </si>
+  <si>
+    <t>测试</t>
   </si>
 </sst>
 </file>
@@ -1192,7 +1195,7 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="2" outlineLevelCol="2"/>
@@ -1228,7 +1231,7 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C3">
         <v>1</v>
